--- a/07.系统开发/ETL文档/02开发命名规范.xlsx
+++ b/07.系统开发/ETL文档/02开发命名规范.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Cover Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Document Revision" sheetId="3" r:id="rId2"/>
     <sheet name="Naming Conventions" sheetId="6" r:id="rId3"/>
-    <sheet name="Name List" sheetId="7" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="8" r:id="rId4"/>
+    <sheet name="Name List" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
   <si>
     <t>Document Name</t>
     <phoneticPr fontId="28" type="noConversion"/>
@@ -550,12 +551,276 @@
     <t>conn_qdch_lakedb</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>hub层</t>
+  </si>
+  <si>
+    <t>hub层</t>
+    <rPh sb="3" eb="4">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>表类型</t>
+  </si>
+  <si>
+    <t>建表规则</t>
+  </si>
+  <si>
+    <t>举例</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>下载表</t>
+  </si>
+  <si>
+    <t>TG_源系统简称_表名称</t>
+  </si>
+  <si>
+    <t>lake层</t>
+  </si>
+  <si>
+    <t>主</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>TM_BusinessName</t>
+  </si>
+  <si>
+    <t>交易明细</t>
+  </si>
+  <si>
+    <t>TT_BusinessName</t>
+  </si>
+  <si>
+    <t>hub层，transaction数据</t>
+  </si>
+  <si>
+    <t>关系表</t>
+  </si>
+  <si>
+    <t>TR_BusinessName</t>
+  </si>
+  <si>
+    <t>可具备Code List Table功能</t>
+  </si>
+  <si>
+    <t>代码表</t>
+  </si>
+  <si>
+    <t>TC_BusinessName</t>
+  </si>
+  <si>
+    <t>TC_ACCT_TYPE</t>
+  </si>
+  <si>
+    <t>用于存储代码</t>
+  </si>
+  <si>
+    <t>事实表</t>
+  </si>
+  <si>
+    <t>TF_BusinessName</t>
+  </si>
+  <si>
+    <t>TT_SD_INVOICE</t>
+  </si>
+  <si>
+    <t>insight层</t>
+  </si>
+  <si>
+    <t>维度表</t>
+  </si>
+  <si>
+    <t>TD_BusinessName</t>
+  </si>
+  <si>
+    <t>TD_PRODUCT</t>
+  </si>
+  <si>
+    <t>接口表</t>
+  </si>
+  <si>
+    <t>TI_BusinessName</t>
+  </si>
+  <si>
+    <t>TI_USERS</t>
+  </si>
+  <si>
+    <t>控制表</t>
+  </si>
+  <si>
+    <t>TS_BusinessName</t>
+  </si>
+  <si>
+    <t>TS_TABLE_FIELD_MAX</t>
+  </si>
+  <si>
+    <t>用于管理系统元数据的控制表</t>
+  </si>
+  <si>
+    <t>日志表</t>
+  </si>
+  <si>
+    <t>TL_ BusinessName</t>
+  </si>
+  <si>
+    <t>TL_WAPF_ACTION</t>
+  </si>
+  <si>
+    <t>存放集群自身Log日志数据</t>
+  </si>
+  <si>
+    <t>TG_lake_Order_Manufacture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TT_lake_INVOICE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_TEACHER_STUDENT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM_hub_PRODUCT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据表</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'shu'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>kettle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务表</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系表</t>
+    <rPh sb="0" eb="1">
+      <t>guan'xi'biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insight层</t>
+    <rPh sb="7" eb="8">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lake层</t>
+    <rPh sb="4" eb="5">
+      <t>ceng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUB_TM_BusinessName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUB_TM_PRODUCT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUB_TM_INNVOCIE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUB_TM_CUSTOMER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAKE_ZD_TQS_JYSXX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实表</t>
+    <rPh sb="0" eb="1">
+      <t>shi'shi'biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度表</t>
+    <rPh sb="0" eb="1">
+      <t>wei'du'biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSIGHT_主题_TF_BusinessName</t>
+    <rPh sb="8" eb="9">
+      <t>zhu'ti</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insight_主题_TD_BusinessName</t>
+    <rPh sb="8" eb="9">
+      <t>zhu'ti</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAKE_源系统_BusinessName</t>
+    <rPh sb="5" eb="6">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'tong</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志表</t>
+    <rPh sb="0" eb="1">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <rPh sb="0" eb="1">
+      <t>ri'zhi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_HUB/LAKE/INSIGHT_ACTION</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,8 +1072,53 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1316,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1332,6 +1654,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF5B9BD5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1488,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +2067,75 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2373,14 +2838,14 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="3" customWidth="1"/>
@@ -3403,7 +3868,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="F11" s="4"/>
@@ -3412,9 +3879,13 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -3424,7 +3895,9 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="F14" s="4"/>
@@ -3432,24 +3905,51 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -3466,7 +3966,9 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="F20" s="4"/>
@@ -3474,15 +3976,23 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
@@ -3501,7 +4011,9 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="F25" s="4"/>
@@ -3509,8 +4021,12 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
@@ -3609,6 +4125,205 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="81"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="77"/>
+    </row>
+    <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
